--- a/2T-sprint1-bd/Projeto 1 - HROADS/Modelagens/HROADS-FÍSICO.xlsx
+++ b/2T-sprint1-bd/Projeto 1 - HROADS/Modelagens/HROADS-FÍSICO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Murillo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gumig\Desktop\2021-2S-2D\2T-sprint1-bd\Projeto 1 - HROADS\Modelagens\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52FA0226-22FB-4C28-8CD8-FAF9FDCE105F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4369D543-C644-4728-B2F6-67FF8FC97D6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9360" xr2:uid="{9A3D182C-36E0-4FD9-ABD8-AA97269100E2}"/>
+    <workbookView xWindow="-28920" yWindow="-2715" windowWidth="29040" windowHeight="15840" xr2:uid="{9A3D182C-36E0-4FD9-ABD8-AA97269100E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>idClasse</t>
   </si>
@@ -115,13 +115,40 @@
   </si>
   <si>
     <t xml:space="preserve">Fer8 </t>
+  </si>
+  <si>
+    <t>idTipoUsuario</t>
+  </si>
+  <si>
+    <t>titulo</t>
+  </si>
+  <si>
+    <t>Administrador</t>
+  </si>
+  <si>
+    <t>Jogador</t>
+  </si>
+  <si>
+    <t>idUsuario</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>senha</t>
+  </si>
+  <si>
+    <t>jogador@email.com</t>
+  </si>
+  <si>
+    <t>admin@email.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,8 +162,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,6 +210,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -186,10 +241,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -222,8 +278,25 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -536,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49B31C3A-5421-44E4-8FC2-CC12C5E8E226}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -812,8 +885,82 @@
         <v>43177</v>
       </c>
     </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J18" s="19"/>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="16">
+        <v>1</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="H19" s="16">
+        <v>123</v>
+      </c>
+      <c r="I19" s="18">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18"/>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" s="12">
+        <v>2</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H20" s="16">
+        <v>123</v>
+      </c>
+      <c r="I20" s="18">
+        <v>2</v>
+      </c>
+      <c r="J20" s="18"/>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="P24" s="21"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G19" r:id="rId1" xr:uid="{A79ACBAB-5E91-41EF-8033-074A4BBE9E74}"/>
+    <hyperlink ref="G20" r:id="rId2" xr:uid="{CAF1583E-B491-4486-B87E-9C465A8DBEB0}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>